--- a/CGCNN_MT/evaluation/CGCNN_results_external_test.xlsx
+++ b/CGCNN_MT/evaluation/CGCNN_results_external_test.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -494,28 +473,30 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>TSD</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CGCNN_SG</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4137029508195535</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.99033355712891</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>SSD</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CGCNN_MT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7466666666666666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.848</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>CGCNN_SG</t>
@@ -534,144 +515,168 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water</t>
+        </is>
+      </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>CGCNN_SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.875</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TSD</t>
+          <t>WS24_water4</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_MT</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4377603485977757</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.11420822143555</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>CGCNN_SG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1618055555555556</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3497685185185185</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>WS24_acid</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>CGCNN_SG</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.4137029508195535</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49.99033355712891</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4742857142857143</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4533333333333334</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WS24_base</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4896865162350406</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.58567810058594</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>CGCNN_SG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4828571428571429</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4038095238095238</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WS24_acid</t>
+          <t>WS24_boiling</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_MT</t>
+          <t>CGCNN_SG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5047619047619047</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5942857142857143</v>
+        <v>0.3214285714285714</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TSD</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_SG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4742857142857143</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4533333333333334</v>
-      </c>
+          <t>CGCNN_MT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4377603485977757</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51.11420822143555</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>CGCNN_MT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.75</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5009523809523809</v>
+        <v>0.7466666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.539047619047619</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>WS24_base</t>
+          <t>WS24_water</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -682,57 +687,65 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5190476190476191</v>
+        <v>0.6472222222222221</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.5819444444444445</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water4</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_SG</t>
+          <t>CGCNN_MT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4828571428571429</v>
+        <v>0.5486111111111112</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4038095238095238</v>
+        <v>0.5921440972222222</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>WS24_acid</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>CGCNN_MT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.5434782608695652</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5380952380952381</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6495238095238095</v>
+        <v>0.5942857142857143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>WS24_boiling</t>
+          <t>WS24_base</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -743,97 +756,111 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5190476190476191</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>WS24_boiling</t>
+        </is>
+      </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_SG</t>
+          <t>CGCNN_MT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.4523809523809523</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>TSD</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>MOFSNN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.5535714285714286</v>
-      </c>
+      <c r="C16" t="n">
+        <v>0.4896865162350406</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45.58567810058594</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>WS24_water</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_MT</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.6739130434782609</v>
+        <v>0.875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6472222222222221</v>
+        <v>0.8733333333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819444444444445</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water</t>
+        </is>
+      </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_SG</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water4</t>
+        </is>
+      </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>MOFSNN</t>
@@ -842,59 +869,67 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5805555555555556</v>
+        <v>0.2993055555555556</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6234085648148148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>WS24_water4</t>
+          <t>WS24_acid</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_MT</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5009523809523809</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5921440972222222</v>
+        <v>0.539047619047619</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>WS24_base</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>CGCNN_SG</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.1956521739130435</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1618055555555556</v>
+        <v>0.5380952380952381</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3497685185185185</v>
+        <v>0.6495238095238095</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>WS24_boiling</t>
+        </is>
+      </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>MOFSNN</t>
@@ -903,25 +938,16 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.391304347826087</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2993055555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6234085648148148</v>
+        <v>0.5535714285714286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A14:A16"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>